--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s1_P3_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s1_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>410.4508472841032</v>
+        <v>841.8176034587436</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35.86084728397254</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>4.685690984262621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.685690984262621</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>162.5800000001306</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.01</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.75054662682655</v>
+        <v>25.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.41539744121283</v>
+        <v>16.55358700954922</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.01720891576282</v>
+        <v>18.1553984840992</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>2.71773803005367</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.25104122449664</v>
+        <v>5.206834251576655</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.43623761108917</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,76 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>202.86</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>203.34</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>217.055</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>207.51</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>199.0450000000008</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>133.4550000000177</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>124.2550000000176</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>126.035000000018</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>135.4400000000163</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>139.2600000000173</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>214.5100000000168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>207.3550000000167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>194.0350000000171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>211.6800000000154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>216.9800000000164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>75.89000000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.69000000000051</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>80.25500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>75.56500000000051</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>89.01500000001798</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>85.72000000001789</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>84.66500000001831</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>89.62500000001654</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>93.42500000001755</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>214.5100000000168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>207.3550000000167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>194.0350000000171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>211.6800000000154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>216.9800000000164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>202.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>203.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>217.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>207.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>199.0450000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>14.51000000001682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.35500000001673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1637,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.68000000001538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.98000000001639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1805,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2099,45 +2224,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
